--- a/analyses/T7-incubations/unipept/lca/NAAF/MS_phylum_naaf.xlsx
+++ b/analyses/T7-incubations/unipept/lca/NAAF/MS_phylum_naaf.xlsx
@@ -14,6 +14,7 @@
     <sheet name="310" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="410" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="for python" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="62">
   <si>
     <t xml:space="preserve">phylum</t>
   </si>
@@ -165,6 +166,9 @@
     <t xml:space="preserve">Candidatus Marinimicrobia</t>
   </si>
   <si>
+    <t xml:space="preserve">Phylum</t>
+  </si>
+  <si>
     <t xml:space="preserve">Time 0 small</t>
   </si>
   <si>
@@ -175,6 +179,39 @@
   </si>
   <si>
     <t xml:space="preserve">Time 24 large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibrobacteres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elusimicrobia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candidatus Rokubacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candidatus Aminicenantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candidatus Saccharibacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crenarchaeota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorophyta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyanobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mucoromycota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negarnaviricota</t>
   </si>
 </sst>
 </file>
@@ -277,11 +314,11 @@
   </sheetPr>
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2004,7 +2041,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.35"/>
@@ -2592,7 +2629,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.32"/>
@@ -3455,7 +3492,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.32"/>
@@ -4197,7 +4234,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.32"/>
@@ -4878,29 +4915,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4939,70 +4976,70 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0.113261953301068</v>
+        <v>2.43406348697955</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.105460244986099</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.013743866961442</v>
+        <v>0.053484387939575</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.020844639000732</v>
+        <v>0.027555711625541</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>2.43406348697955</v>
+        <v>0.113261953301068</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0</v>
+        <v>0.105460244986099</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.053484387939575</v>
+        <v>0.013743866961442</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.027555711625541</v>
+        <v>0.020844639000732</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>0</v>
+        <v>0.151015937734757</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.004181173686612</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.006871933480721</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.00251368797961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>0.933164520908169</v>
+        <v>0.037753984433689</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0</v>
+        <v>0.04441510916156</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.001199346881069</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.001735867548184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5024,33 +5061,33 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.006894992079432</v>
+        <v>0.004181173686612</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0</v>
+        <v>0.006871933480721</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0</v>
+        <v>0.00251368797961</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>0.151015937734757</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0</v>
+        <v>0.001244727573866</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0</v>
@@ -5058,10 +5095,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>0.037753984433689</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0</v>
@@ -5075,13 +5112,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.004181173686612</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>0</v>
@@ -5092,13 +5129,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.004181173686612</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>0</v>
@@ -5109,24 +5146,24 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.006319094571654</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0</v>
+        <v>0.003435966740361</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0</v>
+        <v>0.001892380195971</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>0</v>
@@ -5135,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.003435966740361</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>0</v>
@@ -5143,7 +5180,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>0</v>
@@ -5155,15 +5192,15 @@
         <v>0</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0.00164101139801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>0.037753984433689</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0</v>
@@ -5177,47 +5214,47 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>0.037753984433689</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0.04441510916156</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0</v>
+        <v>0.005311944409743</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0</v>
+        <v>0.004181173686612</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.003435966740361</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0.001892380195971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.543473689190034</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>0</v>
@@ -5228,13 +5265,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.004181173686612</v>
+        <v>0.006319094571654</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>0</v>
@@ -5245,41 +5282,41 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>0.004181173686612</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0</v>
+        <v>0.00164101139801</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>0</v>
+        <v>0.933164520908169</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>0.003826168373598</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>0</v>
+        <v>0.001199346881069</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>0</v>
+        <v>0.001735867548184</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>0</v>
@@ -5288,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0.003435966740361</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>0</v>
@@ -5296,16 +5333,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>0</v>
+        <v>0.006894992079432</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0.001244727573866</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>0</v>
@@ -5313,7 +5350,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>0</v>
@@ -5322,16 +5359,686 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0</v>
+        <v>0.003435966740361</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>0.005311944409743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.004181173686612</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.004181173686612</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>40</v>
       </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0.002286033219193</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.003826168373598</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.037753984433689</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.543473689190034</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.037753984433689</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.004181173686612</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0.003435966740361</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>22.8107464782832</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>25.1707681504962</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>16.4804264644123</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>15.6383643422831</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>73.4444856694922</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>74.0094220246635</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>83.4302578492067</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>84.2517068652803</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2.43406348697955</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.053484387939575</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.027555711625541</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.113261953301068</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.105460244986099</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.013743866961442</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.020844639000732</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.151015937734757</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.037753984433689</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.04441510916156</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.088514658044886</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.002463523323277</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.046147517059642</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.004181173686612</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.006871933480721</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.00251368797961</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0.001244727573866</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0.003435966740361</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.001892380195971</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.005311944409743</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0.004181173686612</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0.006319094571654</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0.00164101139801</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>0.933164520908169</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0.001199346881069</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0.001735867548184</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0.006894992079432</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0.003435966740361</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>59</v>
+      </c>
       <c r="B27" s="1" t="n">
         <v>0</v>
       </c>
@@ -5342,7 +6049,194 @@
         <v>0</v>
       </c>
       <c r="E27" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>0.004181173686612</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>0.004181173686612</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="n">
         <v>0.002286033219193</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>0.003826168373598</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>0.037753984433689</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>0.543473689190034</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>0.037753984433689</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>0.004181173686612</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>0.003435966740361</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/analyses/T7-incubations/unipept/lca/NAAF/MS_phylum_naaf.xlsx
+++ b/analyses/T7-incubations/unipept/lca/NAAF/MS_phylum_naaf.xlsx
@@ -5,16 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="phylum-sorting" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="110" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="210" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="310" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="410" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="for python" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="class sorting" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="110 class" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="210 class" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="310 class" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="410 class" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="for python class" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="119">
   <si>
     <t xml:space="preserve">phylum</t>
   </si>
@@ -212,6 +217,177 @@
   </si>
   <si>
     <t xml:space="preserve">Negarnaviricota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verrucomicrobiae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variosea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermoprotei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermoleophilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sphingobacteriia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sordariomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saccharomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planctomycetia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pezizomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opitutae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oligoflexia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrospira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nephroselmidophyceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negativicutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanohaloarchaea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mucoromycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monjiviricetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methanomicrobia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediophyceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnoliopsida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leotiomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignavibacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haptophyta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gammaproteobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusobacteriia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flavobacteriia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eurotiomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epsilonproteobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elardia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dothideomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deltaproteobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deferribacteres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytophagia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coscinodiscophyceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conexivisphaeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clostridia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorophyceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorodendrophyceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorobia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chitinophagia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caudoviricetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryopsida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betaproteobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balneolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacteroidia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacilli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacillariophyceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alphaproteobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agaricomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actinomycetia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aconoidasida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acidobacteriia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class</t>
   </si>
 </sst>
 </file>
@@ -318,7 +494,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2023,6 +2199,1966 @@
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.32"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>77800000</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <f aca="false">SUM(B2:B15)</f>
+        <v>1286800000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>77800000</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <f aca="false">B16</f>
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>77800000</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <f aca="false">SUM(B17:B35)</f>
+        <v>254131200</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>77800000</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <f aca="false">B36</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>77800000</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <f aca="false">B37</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>109000000</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">SUM(B38:B42)</f>
+        <v>396000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>109000000</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <f aca="false">B43</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>109000000</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <f aca="false">B44</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>109000000</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <f aca="false">SUM(B45:B46)</f>
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>109000000</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <f aca="false">B47</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>88200000</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <f aca="false">SUM(B48:B49)</f>
+        <v>143100</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>88200000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>88200000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>88200000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1040000</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>5960000</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>78800</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>14900000</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>14900000</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>14900000</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>14900000</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>24800000</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>24800000</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>24800000</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>24800000</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>63900</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1" t="n">
+        <v>825000</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.32"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>109000000</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <f aca="false">SUM(B2:B17)</f>
+        <v>1775394000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>109000000</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <f aca="false">B18</f>
+        <v>581000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>109000000</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <f aca="false">B19</f>
+        <v>36600</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>109000000</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <f aca="false">B20</f>
+        <v>34600</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>109000000</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <f aca="false">SUM(B21:B32)</f>
+        <v>329628600</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>78800</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">B33</f>
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>78800</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <f aca="false">B34</f>
+        <v>78800</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>205000000</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <f aca="false">B35</f>
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>205000000</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <f aca="false">B36</f>
+        <v>78800</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>205000000</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <f aca="false">SUM(B37:B39)</f>
+        <v>386500</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>205000000</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <f aca="false">SUM(B40:B41)</f>
+        <v>973000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>205000000</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <f aca="false">SUM(B42:B43)</f>
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>78800</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <f aca="false">SUM(B44:B46)</f>
+        <v>1170800</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>78800</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>205000000</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>78800</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>581000</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>36600</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>34600</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>78800</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>171000</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>23700000</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>23700000</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>23700000</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>23700000</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>46900000</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>46900000</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>46900000</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>46900000</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>78800</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>46900000</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>78800</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>78800</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>50500</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>119000</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>217000</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>362000</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>611000</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>59600</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>78800</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>546000</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>546000</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.112794857686369</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.056397428843184</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>73.4097488581684</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>74.3797748310919</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>83.4542429750698</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>84.1967353428349</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2.3954665483393</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.027553491356954</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0.056397428843184</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0.001199800664469</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0.001735727682727</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0.006282962932365</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0.001640879175474</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>22.5098401979274</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>25.0534336883163</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>16.4814477093146</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>15.6323903289237</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0.005136443925727</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>0.006282962932365</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0.005136443925727</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>0.056397428843184</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>0.036729947445519</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>0.002513485442201</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>0.006282962932365</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>0.169192286529553</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>0.101796692358725</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>0.025682219628635</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>0.003737031185762</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>0.005136443925727</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>0.005136443925727</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>0.932836259906207</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>0.20928288304308</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>0.00531151640616</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>0.006282962932365</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>0.003737031185762</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>0.01256592586473</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>0.018329474026614</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>0.009011926630261</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>0.08900864154184</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>0.002464455418909</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>0.046143798778513</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>0.064087987321801</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>0.233500922918229</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>0.005136443925727</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>0.00464757685539</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>0.006282962932365</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>0.027557834548374</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>0.048915087677985</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>0.009280620274893</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>0.05552431614582</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>0.003847521492673</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2041,7 +4177,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.35"/>
@@ -2629,7 +4765,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.32"/>
@@ -3492,7 +5628,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.32"/>
@@ -4234,7 +6370,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.32"/>
@@ -4917,11 +7053,11 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5383,189 +7519,189 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="0" t="n">
+      <c r="B28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="n">
         <v>0.004181173686612</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="0" t="n">
+      <c r="D28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="0" t="n">
+      <c r="B29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="n">
         <v>0.004181173686612</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="0" t="n">
+      <c r="D29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="0" t="n">
+      <c r="B30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="n">
         <v>0.002286033219193</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="0" t="n">
+      <c r="B31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="0" t="n">
+      <c r="B32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="n">
         <v>0.003826168373598</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="0" t="n">
+      <c r="D32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>0.037753984433689</v>
       </c>
-      <c r="C33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="0" t="n">
+      <c r="C33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="0" t="n">
+      <c r="B34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="n">
         <v>0.543473689190034</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="0" t="n">
+      <c r="D34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>0.037753984433689</v>
       </c>
-      <c r="C35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="0" t="n">
+      <c r="C35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="0" t="n">
+      <c r="B36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="n">
         <v>0.004181173686612</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="0" t="n">
+      <c r="D36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="0" t="n">
+      <c r="B37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="n">
         <v>0.003435966740361</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="0" t="n">
+      <c r="B38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5585,105 +7721,184 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>410</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>21</v>
+      <c r="A2" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>22.8107464782832</v>
+        <v>158400</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>25.1707681504962</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>16.4804264644123</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>15.6383643422831</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <f aca="false">(B2/B$56)*100</f>
+        <v>0.112794857686369</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <f aca="false">(C2/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <f aca="false">(D2/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <f aca="false">(E2/E$56)*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>25</v>
+      <c r="A3" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>73.4444856694922</v>
+        <v>79200</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>74.0094220246635</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>83.4302578492067</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>84.2517068652803</v>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <f aca="false">(B3/B$56)*100</f>
+        <v>0.0563974288431844</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <f aca="false">(C3/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <f aca="false">(D3/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <f aca="false">(E3/E$56)*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>22</v>
+      <c r="A4" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>2.43406348697955</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.053484387939575</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.027555711625541</v>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <f aca="false">(B4/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <f aca="false">(C4/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <f aca="false">(D4/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <f aca="false">(E4/E$56)*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
+      <c r="A5" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>0.113261953301068</v>
+        <v>103090730</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.105460244986099</v>
+        <v>937595562.8</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.013743866961442</v>
+        <v>1286800000</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.020844639000732</v>
+        <v>1775394000</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <f aca="false">(B5/B$56)*100</f>
+        <v>73.4097488581684</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <f aca="false">(C5/C$56)*100</f>
+        <v>74.3797748310919</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <f aca="false">(D5/D$56)*100</f>
+        <v>83.4542429750698</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <f aca="false">(E5/E$56)*100</f>
+        <v>84.1967353428349</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>16</v>
+      <c r="A6" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>0.151015937734757</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0</v>
@@ -5694,16 +7909,32 @@
       <c r="E6" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G6" s="1" t="n">
+        <f aca="false">(B6/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <f aca="false">(C6/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <f aca="false">(D6/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <f aca="false">(E6/E$56)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>26</v>
+      <c r="A7" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>0.037753984433689</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.04441510916156</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>0</v>
@@ -5711,44 +7942,92 @@
       <c r="E7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G7" s="1" t="n">
+        <f aca="false">(B7/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">(C7/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <f aca="false">(D7/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <f aca="false">(E7/E$56)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>27</v>
+      <c r="A8" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.088514658044886</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.002463523323277</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.046147517059642</v>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <f aca="false">(B8/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <f aca="false">(C8/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <f aca="false">(D8/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <f aca="false">(E8/E$56)*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>29</v>
+      <c r="A9" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>0</v>
+        <v>3364000</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.004181173686612</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.006871933480721</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.00251368797961</v>
+        <v>581000</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <f aca="false">(B9/B$56)*100</f>
+        <v>2.3954665483393</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <f aca="false">(C9/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <f aca="false">(D9/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <f aca="false">(E9/E$56)*100</f>
+        <v>0.0275534913569535</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>0</v>
@@ -5757,18 +8036,34 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.001244727573866</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G10" s="1" t="n">
+        <f aca="false">(B10/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <f aca="false">(C10/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <f aca="false">(D10/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <f aca="false">(E10/E$56)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>51</v>
+      <c r="A11" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>0</v>
+        <v>79200</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0</v>
@@ -5779,10 +8074,26 @@
       <c r="E11" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G11" s="1" t="n">
+        <f aca="false">(B11/B$56)*100</f>
+        <v>0.0563974288431844</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <f aca="false">(C11/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <f aca="false">(D11/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <f aca="false">(E11/E$56)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>52</v>
+      <c r="A12" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>0</v>
@@ -5796,10 +8107,26 @@
       <c r="E12" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G12" s="1" t="n">
+        <f aca="false">(B12/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <f aca="false">(C12/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <f aca="false">(D12/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <f aca="false">(E12/E$56)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>53</v>
+      <c r="A13" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>0</v>
@@ -5813,10 +8140,26 @@
       <c r="E13" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G13" s="1" t="n">
+        <f aca="false">(B13/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <f aca="false">(C13/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <f aca="false">(D13/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <f aca="false">(E13/E$56)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>28</v>
+      <c r="A14" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>0</v>
@@ -5825,15 +8168,31 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.003435966740361</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.001892380195971</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <f aca="false">(B14/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <f aca="false">(C14/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <f aca="false">(D14/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <f aca="false">(E14/E$56)*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>54</v>
+      <c r="A15" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>0</v>
@@ -5847,10 +8206,26 @@
       <c r="E15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G15" s="1" t="n">
+        <f aca="false">(B15/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <f aca="false">(C15/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <f aca="false">(D15/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <f aca="false">(E15/E$56)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>55</v>
+      <c r="A16" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>0</v>
@@ -5864,10 +8239,26 @@
       <c r="E16" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G16" s="1" t="n">
+        <f aca="false">(B16/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <f aca="false">(C16/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <f aca="false">(D16/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <f aca="false">(E16/E$56)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>56</v>
+      <c r="A17" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>0</v>
@@ -5881,10 +8272,26 @@
       <c r="E17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G17" s="1" t="n">
+        <f aca="false">(B17/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <f aca="false">(C17/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <f aca="false">(D17/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <f aca="false">(E17/E$56)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>39</v>
+      <c r="A18" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>0</v>
@@ -5896,18 +8303,34 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0.005311944409743</v>
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <f aca="false">(B18/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <f aca="false">(C18/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <f aca="false">(D18/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <f aca="false">(E18/E$56)*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>32</v>
+      <c r="A19" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0.004181173686612</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0</v>
@@ -5915,10 +8338,26 @@
       <c r="E19" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G19" s="1" t="n">
+        <f aca="false">(B19/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <f aca="false">(C19/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <f aca="false">(D19/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <f aca="false">(E19/E$56)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>57</v>
+      <c r="A20" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>0</v>
@@ -5932,27 +8371,59 @@
       <c r="E20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G20" s="1" t="n">
+        <f aca="false">(B20/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <f aca="false">(C20/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <f aca="false">(D20/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <f aca="false">(E20/E$56)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>19</v>
+      <c r="A21" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.006319094571654</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0</v>
+        <v>18500</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>0</v>
+        <v>36600</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <f aca="false">(B21/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <f aca="false">(C21/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <f aca="false">(D21/D$56)*100</f>
+        <v>0.00119980066446906</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <f aca="false">(E21/E$56)*100</f>
+        <v>0.00173572768272719</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>41</v>
+      <c r="A22" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>0</v>
@@ -5964,35 +8435,67 @@
         <v>0</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0.00164101139801</v>
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <f aca="false">(B22/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <f aca="false">(C22/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <f aca="false">(D22/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <f aca="false">(E22/E$56)*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>18</v>
+      <c r="A23" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>0.933164520908169</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>0.001199346881069</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>0.001735867548184</v>
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <f aca="false">(B23/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <f aca="false">(C23/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <f aca="false">(D23/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <f aca="false">(E23/E$56)*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>58</v>
+      <c r="A24" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>0</v>
+        <v>79200</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>0</v>
@@ -6000,44 +8503,92 @@
       <c r="E24" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G24" s="1" t="n">
+        <f aca="false">(B24/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <f aca="false">(C24/C$56)*100</f>
+        <v>0.00628296293236519</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <f aca="false">(D24/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <f aca="false">(E24/E$56)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>34</v>
+      <c r="A25" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>0.006894992079432</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0</v>
+        <v>34600</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <f aca="false">(B25/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <f aca="false">(C25/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <f aca="false">(D25/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <f aca="false">(E25/E$56)*100</f>
+        <v>0.00164087917547434</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>37</v>
+      <c r="A26" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>0</v>
+        <v>31611003.91</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>0</v>
+        <v>315811500</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0.003435966740361</v>
+        <v>254131200</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>0</v>
+        <v>329628600</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <f aca="false">(B26/B$56)*100</f>
+        <v>22.5098401979274</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <f aca="false">(C26/C$56)*100</f>
+        <v>25.0534336883163</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <f aca="false">(D26/D$56)*100</f>
+        <v>16.4814477093146</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <f aca="false">(E26/E$56)*100</f>
+        <v>15.6323903289237</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>59</v>
+      <c r="A27" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>0</v>
@@ -6051,33 +8602,65 @@
       <c r="E27" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G27" s="1" t="n">
+        <f aca="false">(B27/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <f aca="false">(C27/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <f aca="false">(D27/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <f aca="false">(E27/E$56)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>33</v>
+      <c r="A28" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>0.004181173686612</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0</v>
+        <v>79200</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G28" s="1" t="n">
+        <f aca="false">(B28/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <f aca="false">(C28/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <f aca="false">(D28/D$56)*100</f>
+        <v>0.00513644392572702</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <f aca="false">(E28/E$56)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>35</v>
+      <c r="A29" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>0.004181173686612</v>
+        <v>79200</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>0</v>
@@ -6085,10 +8668,26 @@
       <c r="E29" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G29" s="1" t="n">
+        <f aca="false">(B29/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <f aca="false">(C29/C$56)*100</f>
+        <v>0.00628296293236519</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <f aca="false">(D29/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <f aca="false">(E29/E$56)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>40</v>
+      <c r="A30" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>0</v>
@@ -6097,18 +8696,34 @@
         <v>0</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0</v>
+        <v>79200</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>0.002286033219193</v>
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <f aca="false">(B30/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <f aca="false">(C30/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <f aca="false">(D30/D$56)*100</f>
+        <v>0.00513644392572702</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <f aca="false">(E30/E$56)*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>60</v>
+      <c r="A31" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>0</v>
+        <v>79200</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>0</v>
@@ -6117,18 +8732,34 @@
         <v>0</v>
       </c>
       <c r="E31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <f aca="false">(B31/B$56)*100</f>
+        <v>0.0563974288431844</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <f aca="false">(C31/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <f aca="false">(D31/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <f aca="false">(E31/E$56)*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>0.003826168373598</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>0</v>
@@ -6136,33 +8767,65 @@
       <c r="E32" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G32" s="1" t="n">
+        <f aca="false">(B32/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <f aca="false">(C32/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <f aca="false">(D32/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <f aca="false">(E32/E$56)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>17</v>
+      <c r="A33" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>0.037753984433689</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>0</v>
+        <v>463000</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>0</v>
+        <v>53000</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <f aca="false">(B33/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <f aca="false">(C33/C$56)*100</f>
+        <v>0.0367299474455187</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <f aca="false">(D33/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <f aca="false">(E33/E$56)*100</f>
+        <v>0.00251348544220058</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>30</v>
+      <c r="A34" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>0.543473689190034</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>0</v>
@@ -6170,13 +8833,29 @@
       <c r="E34" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G34" s="1" t="n">
+        <f aca="false">(B34/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <f aca="false">(C34/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <f aca="false">(D34/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <f aca="false">(E34/E$56)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>24</v>
+      <c r="A35" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>0.037753984433689</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>0</v>
@@ -6187,16 +8866,32 @@
       <c r="E35" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G35" s="1" t="n">
+        <f aca="false">(B35/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <f aca="false">(C35/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <f aca="false">(D35/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <f aca="false">(E35/E$56)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>31</v>
+      <c r="A36" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>0.004181173686612</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>0</v>
@@ -6204,39 +8899,1678 @@
       <c r="E36" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G36" s="1" t="n">
+        <f aca="false">(B36/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <f aca="false">(C36/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <f aca="false">(D36/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <f aca="false">(E36/E$56)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>20</v>
+      <c r="A37" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>0</v>
+        <v>79200</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>0.003435966740361</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G37" s="1" t="n">
+        <f aca="false">(B37/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <f aca="false">(C37/C$56)*100</f>
+        <v>0.00628296293236519</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <f aca="false">(D37/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <f aca="false">(E37/E$56)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>61</v>
+      <c r="A38" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>0</v>
+        <v>237600</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>0</v>
+        <v>1283200</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>0</v>
+        <v>396000</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>0</v>
+        <v>78800</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <f aca="false">(B38/B$56)*100</f>
+        <v>0.169192286529553</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <f aca="false">(C38/C$56)*100</f>
+        <v>0.101796692358725</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <f aca="false">(D38/D$56)*100</f>
+        <v>0.0256822196286351</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <f aca="false">(E38/E$56)*100</f>
+        <v>0.00373703118576237</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <f aca="false">(B39/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <f aca="false">(C39/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <f aca="false">(D39/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <f aca="false">(E39/E$56)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <f aca="false">(B40/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <f aca="false">(C40/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <f aca="false">(D40/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <f aca="false">(E40/E$56)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <f aca="false">(B41/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <f aca="false">(C41/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <f aca="false">(D41/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <f aca="false">(E41/E$56)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <f aca="false">(B42/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <f aca="false">(C42/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <f aca="false">(D42/D$56)*100</f>
+        <v>0.00513644392572702</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <f aca="false">(E42/E$56)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <f aca="false">(B43/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <f aca="false">(C43/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <f aca="false">(D43/D$56)*100</f>
+        <v>0.00513644392572702</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <f aca="false">(E43/E$56)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>1310000</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <f aca="false">(B44/B$56)*100</f>
+        <v>0.932836259906207</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <f aca="false">(C44/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <f aca="false">(D44/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <f aca="false">(E44/E$56)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>293900</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <f aca="false">(B45/B$56)*100</f>
+        <v>0.20928288304308</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <f aca="false">(C45/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <f aca="false">(D45/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <f aca="false">(E45/E$56)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>112000</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <f aca="false">(B46/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <f aca="false">(C46/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <f aca="false">(D46/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="1" t="n">
+        <f aca="false">(E46/E$56)*100</f>
+        <v>0.00531151640615971</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>78800</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <f aca="false">(B47/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <f aca="false">(C47/C$56)*100</f>
+        <v>0.00628296293236519</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <f aca="false">(D47/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="1" t="n">
+        <f aca="false">(E47/E$56)*100</f>
+        <v>0.00373703118576237</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>158400</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>386500</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <f aca="false">(B48/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <f aca="false">(C48/C$56)*100</f>
+        <v>0.0125659258647304</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <f aca="false">(D48/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="1" t="n">
+        <f aca="false">(E48/E$56)*100</f>
+        <v>0.0183294740266136</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>113600</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <f aca="false">(B49/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <f aca="false">(C49/C$56)*100</f>
+        <v>0.00901192663026118</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <f aca="false">(D49/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="1" t="n">
+        <f aca="false">(E49/E$56)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>1122000</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>38000</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>973000</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <f aca="false">(B50/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <f aca="false">(C50/C$56)*100</f>
+        <v>0.0890086415418402</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <f aca="false">(D50/D$56)*100</f>
+        <v>0.00246445541890943</v>
+      </c>
+      <c r="J50" s="1" t="n">
+        <f aca="false">(E50/E$56)*100</f>
+        <v>0.0461437987785125</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>90000</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>2943400</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>98000</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <f aca="false">(B51/B$56)*100</f>
+        <v>0.0640879873218005</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <f aca="false">(C51/C$56)*100</f>
+        <v>0.233500922918229</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <f aca="false">(D51/D$56)*100</f>
+        <v>0.00513644392572702</v>
+      </c>
+      <c r="J51" s="1" t="n">
+        <f aca="false">(E51/E$56)*100</f>
+        <v>0.00464757685538975</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <f aca="false">(B52/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <f aca="false">(C52/C$56)*100</f>
+        <v>0.00628296293236519</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <f aca="false">(D52/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="1" t="n">
+        <f aca="false">(E52/E$56)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>38700</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>616600</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>143100</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>1170800</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <f aca="false">(B53/B$56)*100</f>
+        <v>0.0275578345483742</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <f aca="false">(C53/C$56)*100</f>
+        <v>0.0489150876779846</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <f aca="false">(D53/D$56)*100</f>
+        <v>0.00928062027489314</v>
+      </c>
+      <c r="J53" s="1" t="n">
+        <f aca="false">(E53/E$56)*100</f>
+        <v>0.0555243161458195</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>48500</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <f aca="false">(B54/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <f aca="false">(C54/C$56)*100</f>
+        <v>0.00384752149267313</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <f aca="false">(D54/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="1" t="n">
+        <f aca="false">(E54/E$56)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <f aca="false">(B55/B$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <f aca="false">(C55/C$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <f aca="false">(D55/D$56)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="1" t="n">
+        <f aca="false">(E55/E$56)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <f aca="false">SUM(B2:B55)</f>
+        <v>140431933.91</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <f aca="false">SUM(C2:C55)</f>
+        <v>1260551762.8</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <f aca="false">SUM(D2:D55)</f>
+        <v>1541922800</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <f aca="false">SUM(E2:E55)</f>
+        <v>2108625700</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <f aca="false">(B56/B$56)*100</f>
+        <v>100</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <f aca="false">(C56/C$56)*100</f>
+        <v>100</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <f aca="false">(D56/D$56)*100</f>
+        <v>100</v>
+      </c>
+      <c r="J56" s="1" t="n">
+        <f aca="false">(E56/E$56)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.35"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <f aca="false">SUM(B2:B3)</f>
+        <v>158400</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <f aca="false">B4</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <f aca="false">SUM(B5:B14)</f>
+        <v>103090730</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>47800000</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <f aca="false">SUM(B15:B17)</f>
+        <v>3364000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>272000</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <f aca="false">B18</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>272000</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">SUM(B19:B24)</f>
+        <v>31611003.91</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>47800000</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <f aca="false">B25</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <f aca="false">SUM(B26:B28)</f>
+        <v>237600</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>272000</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <f aca="false">B29</f>
+        <v>1310000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>6230</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <f aca="false">SUM(B30:B33)</f>
+        <v>293900</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>8600</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <f aca="false">SUM(B34:B35)</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>6520000</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <f aca="false">B36</f>
+        <v>38700</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>60700</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>652000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>652000</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>2060000</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>471000</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>13300000</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>2270000</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>13300000</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>2270000</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1310000</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>55600</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>79900</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>38700</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.32"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>141000000</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <f aca="false">SUM(B2:B13)</f>
+        <v>937595562.8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>141000000</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <f aca="false">B14</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>141000000</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <f aca="false">SUM(B15:B31)</f>
+        <v>315811500</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>141000000</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <f aca="false">B32</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>141000000</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <f aca="false">B33</f>
+        <v>463000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>141000000</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">B34</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <f aca="false">SUM(B35:B39)</f>
+        <v>1283200</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1530</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <f aca="false">B40</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2320</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <f aca="false">SUM(B41:B42)</f>
+        <v>158400</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>91500000</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <f aca="false">SUM(B43:B45)</f>
+        <v>113600</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <f aca="false">SUM(B46:B47)</f>
+        <v>1122000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>12500</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <f aca="false">SUM(B48:B50)</f>
+        <v>2943400</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <f aca="false">B51</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>623000</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <f aca="false">SUM(B52:B55)</f>
+        <v>616600</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>623000</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <f aca="false">B56</f>
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>52300000</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>52300000</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>52300000</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>52300000</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>52300000</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>52300000</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>80100</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>131000</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>463000</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>872000</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>23200</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>561000</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>561000</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>44200</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>2820000</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>61200</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>397000</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>48500</v>
       </c>
     </row>
   </sheetData>
